--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -1,142 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omri braymok\Desktop\לימודים\שנה 6-סמסטר א\פרויקט שלב ב'\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE8181-08BB-4853-BF1B-C77CCA5732E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Child" sheetId="1" r:id="rId1"/>
-    <sheet name="accompanier" sheetId="2" r:id="rId2"/>
-    <sheet name="car" sheetId="3" r:id="rId3"/>
-    <sheet name="time_travel" sheetId="4" r:id="rId4"/>
+    <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Accompanier" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Car" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="time_travel" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>lest_name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>id_school</t>
-  </si>
-  <si>
-    <t>special_needs</t>
-  </si>
-  <si>
-    <t>Omri</t>
-  </si>
-  <si>
-    <t>Braymok</t>
-  </si>
-  <si>
-    <t>Gan-Nar, 305</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Matan</t>
-  </si>
-  <si>
-    <t>Asulin</t>
-  </si>
-  <si>
-    <t>Nesher, 485</t>
-  </si>
-  <si>
-    <t>preferences</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>spacial</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Levi</t>
-  </si>
-  <si>
-    <t>Haifa, 5</t>
-  </si>
-  <si>
-    <t>car_type</t>
-  </si>
-  <si>
-    <t>diver_cost</t>
-  </si>
-  <si>
-    <t>cost_per_minute</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>wheelchair</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>a_to_b</t>
-  </si>
-  <si>
-    <t>b_to_school</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFA9B7C6"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFA9B7C6"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,29 +55,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G21"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="first_name" dataDxfId="5"/>
+    <tableColumn id="3" name="lest_name" dataDxfId="4"/>
+    <tableColumn id="4" name="address" dataDxfId="3"/>
+    <tableColumn id="5" name="contacts" dataDxfId="2"/>
+    <tableColumn id="6" name="id_school" dataDxfId="1"/>
+    <tableColumn id="7" name="special_needs" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="first_name"/>
+    <tableColumn id="3" name="lest_name"/>
+    <tableColumn id="4" name="address"/>
+    <tableColumn id="5" name="contacts"/>
+    <tableColumn id="6" name="preferences"/>
+    <tableColumn id="7" name="history"/>
+    <tableColumn id="8" name="spacial"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="car_type"/>
+    <tableColumn id="3" name="diver_cost"/>
+    <tableColumn id="4" name="cost_per_minute"/>
+    <tableColumn id="5" name="capacity"/>
+    <tableColumn id="6" name="wheelchair"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,230 +481,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.6640625" customWidth="1" min="6" max="6"/>
+    <col width="14.33203125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>lest_name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>id_school</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>special_needs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>203957296</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Omri</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Braymok</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>528401211</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>203957296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>528401211</v>
-      </c>
-      <c r="F2">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>206532695</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Matan</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Asulin</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>542356958</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>203598478</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>542356958</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>7,-1</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>5,-8</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-7,-2</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>-2,-3</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-7,-1</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>-3,9</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>-3,-8</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>-9,-3</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>-10,-7</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7DA29F-741B-4535-BA89-2256954AC833}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="9.109375" customWidth="1" min="4" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.5546875" customWidth="1" min="6" max="6"/>
+    <col width="8.44140625" customWidth="1" min="7" max="7"/>
+    <col width="8.33203125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lest_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>spacial</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>206598326</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hai</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Levi</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Haifa, 5</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>526953265</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13271B3C-B6A3-4EB1-8652-FD061792AA7E}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col width="4.44140625" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="16.88671875" customWidth="1" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" min="5" max="5"/>
+    <col width="11.77734375" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>car_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>diver_cost</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cost_per_minute</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wheelchair</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="b">
@@ -673,36 +1038,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EAE54C-A190-46EA-9495-D75BB78A603F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a_to_b</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>b_to_school</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>17</v>
       </c>
     </row>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>-4,-4</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
@@ -608,7 +608,7 @@
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-10,-2</t>
         </is>
       </c>
       <c r="E4" s="3" t="n"/>
@@ -621,7 +621,7 @@
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>7,-1</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E5" s="3" t="n"/>
@@ -634,7 +634,7 @@
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>5,-8</t>
+          <t>-6,-8</t>
         </is>
       </c>
       <c r="E6" s="3" t="n"/>
@@ -647,7 +647,7 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-7,-2</t>
+          <t>3,-9</t>
         </is>
       </c>
       <c r="E7" s="3" t="n"/>
@@ -660,7 +660,7 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="E8" s="3" t="n"/>
@@ -673,7 +673,7 @@
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="E9" s="3" t="n"/>
@@ -686,7 +686,7 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-2,-3</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E10" s="3" t="n"/>
@@ -699,7 +699,7 @@
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-7,-1</t>
+          <t>-9,-1</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -712,7 +712,7 @@
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -725,7 +725,7 @@
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-4,-1</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -738,7 +738,7 @@
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-7,-9</t>
         </is>
       </c>
       <c r="E14" s="3" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>9,-4</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -764,7 +764,7 @@
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
@@ -777,7 +777,7 @@
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-3,-8</t>
+          <t>8,-6</t>
         </is>
       </c>
       <c r="E17" s="3" t="n"/>
@@ -790,7 +790,7 @@
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="E18" s="3" t="n"/>
@@ -803,7 +803,7 @@
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E19" s="3" t="n"/>
@@ -816,7 +816,7 @@
       <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -829,7 +829,7 @@
       <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-10,-7</t>
+          <t>-4,-6</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Accompanier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Car" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="time_travel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="School" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +32,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FFA9B7C6"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -52,8 +61,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -67,10 +77,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
@@ -98,8 +109,51 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -172,16 +226,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" name="first_name" dataDxfId="5"/>
-    <tableColumn id="3" name="lest_name" dataDxfId="4"/>
-    <tableColumn id="4" name="address" dataDxfId="3"/>
-    <tableColumn id="5" name="contacts" dataDxfId="2"/>
-    <tableColumn id="6" name="id_school" dataDxfId="1"/>
-    <tableColumn id="7" name="special_needs" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -205,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F2" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="car_type"/>
@@ -214,6 +268,20 @@
     <tableColumn id="4" name="cost_per_minute"/>
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Addres" dataDxfId="2"/>
+    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
+    <tableColumn id="5" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -556,14 +624,16 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-4,-4</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>528401211</v>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -587,254 +657,616 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>542356958</v>
+          <t>-5,6</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="F3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>302962915</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asher </t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-8,4</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>308035542</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anastasia </t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Afanasenko</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>2,-10</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>311177802</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christina </t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Kipnis</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>305251175</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Or </t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Levi</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-1,-2</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>-10,-2</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>-3,5</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>-6,-8</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>3,-9</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>308051846</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eyal </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Basis</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+          <t>1,-8</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
+      <c r="A9" s="3" t="n">
+        <v>312049950</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Molham </t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Halaby</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-8,2</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+          <t>-8,-2</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
+      <c r="A10" s="3" t="n">
+        <v>308073899</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anan </t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Mshelh</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+          <t>-8,-3</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="A11" s="3" t="n">
+        <v>318869187</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soaad </t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Amer</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-9,-1</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>205898513</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asaf </t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Ben Shabat</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+          <t>3,-8</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>318428158</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tal </t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Vakrat</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-4,-1</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+          <t>-2,-9</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>316028364</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sami </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Odeh</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-7,-9</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+          <t>-10,7</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>318294931</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shalev </t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Kubi</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>9,-4</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>305487936</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avihai </t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Uksusman</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+          <t>-1,-9</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>313227928</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aviv </t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Leder</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>8,-6</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+          <t>-9,9</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="A18" s="3" t="n">
+        <v>205807308</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sariel </t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Sofer</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-5,4</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="A19" s="3" t="n">
+        <v>315891549</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raz </t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Peretz</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+          <t>-10,-4</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="A20" s="3" t="n">
+        <v>315060103</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Kirshenbaum</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+          <t>-2,-3</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="A21" s="3" t="n">
+        <v>313925141</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elad  </t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Leibovich</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-4,-6</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+          <t>-8,-9</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n"/>
@@ -966,10 +1398,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1020,24 +1452,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>minibus</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>25</v>
       </c>
       <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>minibus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>124</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>minibus</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1050,10 +1527,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1061,28 +1538,84 @@
     <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a_to_b</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>b_to_school</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Addres</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
+      <c r="A2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +66,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999755851924192"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -74,6 +91,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -557,7 +580,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -619,12 +642,12 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Braymok</t>
+          <t>Ben Shabat</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -652,12 +675,12 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Asulin</t>
+          <t>Vakrat</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -685,12 +708,12 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Odeh</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-9,-3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -718,12 +741,12 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Afanasenko</t>
+          <t>Kubi</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2,-10</t>
+          <t>-1,-1</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -751,12 +774,12 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Kipnis</t>
+          <t>Uksusman</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -784,12 +807,12 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Levi</t>
+          <t>Leder</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-1,-2</t>
+          <t>-3,-4</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -817,12 +840,12 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Basis</t>
+          <t>Sofer</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>1,-8</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -850,12 +873,12 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Halaby</t>
+          <t>Peretz</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-8,-2</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -883,12 +906,12 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Mshelh</t>
+          <t>Kirshenbaum</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-8,-3</t>
+          <t>-6,-2</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -916,12 +939,12 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Amer</t>
+          <t>Leibovich</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -947,14 +970,14 @@
           <t xml:space="preserve">Asaf </t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Ben Shabat</t>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Braymok</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>3,-8</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -980,14 +1003,14 @@
           <t xml:space="preserve">Tal </t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Vakrat</t>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Asulin</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1013,14 +1036,14 @@
           <t xml:space="preserve">Sami </t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Odeh</t>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Castro</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>6,-1</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1046,14 +1069,14 @@
           <t xml:space="preserve">Shalev </t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Kubi</t>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Afanasenko</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-10,-2</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1079,14 +1102,14 @@
           <t xml:space="preserve">Avihai </t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Uksusman</t>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Kipnis</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-1,-9</t>
+          <t>-9,-4</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1112,14 +1135,14 @@
           <t xml:space="preserve">Aviv </t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Leder</t>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Levi</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1145,14 +1168,14 @@
           <t xml:space="preserve">Sariel </t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Sofer</t>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Basis</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1178,14 +1201,14 @@
           <t xml:space="preserve">Raz </t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Peretz</t>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Halaby</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-10,-4</t>
+          <t>-3,-10</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1211,14 +1234,14 @@
           <t xml:space="preserve">Dan </t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Kirshenbaum</t>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Mshelh</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-2,-3</t>
+          <t>8,-2</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1244,14 +1267,14 @@
           <t xml:space="preserve">Elad  </t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Leibovich</t>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Amer</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-8,-9</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -579,7 +579,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>9,-2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,-1</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>-7,-3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-1,-1</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-3,-4</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>2,-1</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-6,-2</t>
+          <t>-5,-10</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-9,-6</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>6,-1</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-10,-2</t>
+          <t>5,-7</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-9,-4</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-7,-6</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>0,-9</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-3,-10</t>
+          <t>-3,-8</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>8,-2</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>1,-2</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1574,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,29 +79,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -171,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="17" type="wholeTable"/>
+      <tableStyleElement dxfId="16" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -249,23 +249,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="7" id="7" name="special_needs"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Accompanier" headerRowCount="1" id="2" name="Accompanier" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
@@ -277,12 +277,12 @@
     <tableColumn id="7" name="history"/>
     <tableColumn id="8" name="spacial"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Car" headerRowCount="1" id="3" name="Car" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -292,21 +292,21 @@
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="School" headerRowCount="1" headerRowDxfId="6" id="4" name="School" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Addres" dataDxfId="2"/>
-    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
-    <tableColumn id="5" name="Time" dataDxfId="0"/>
+    <tableColumn dataDxfId="4" id="1" name="ID"/>
+    <tableColumn dataDxfId="3" id="2" name="Name"/>
+    <tableColumn dataDxfId="2" id="3" name="Addres"/>
+    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="0" id="5" name="Time"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -579,19 +579,19 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.6640625" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.33203125"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
+    <col customWidth="1" max="6" min="6" width="10.6640625"/>
+    <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-9,-9</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-1,-1</t>
+          <t>-3,-4</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>3,-8</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-3,-4</t>
+          <t>0,-5</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,-3</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-3,-8</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-6,-2</t>
+          <t>-7,-8</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>6,-1</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-10,-2</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-9,-4</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-3,-10</t>
+          <t>-6,-2</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>8,-2</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1295,7 +1295,7 @@
       <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1317,14 +1317,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.5546875" customWidth="1" min="6" max="6"/>
-    <col width="8.44140625" customWidth="1" min="7" max="7"/>
-    <col width="8.33203125" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="12.5546875"/>
+    <col customWidth="1" max="7" min="7" width="8.44140625"/>
+    <col customWidth="1" max="8" min="8" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1429,12 +1429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="16.88671875" customWidth="1" min="4" max="4"/>
-    <col width="9.6640625" customWidth="1" min="5" max="5"/>
-    <col width="11.77734375" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="16.88671875"/>
+    <col customWidth="1" max="5" min="5" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1558,11 +1558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.109375"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1580,7 +1580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,29 +79,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -171,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="17" type="wholeTable"/>
+      <tableStyleElement dxfId="16" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -249,23 +249,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="7" id="7" name="special_needs"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Accompanier" headerRowCount="1" id="2" name="Accompanier" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
@@ -277,12 +277,12 @@
     <tableColumn id="7" name="history"/>
     <tableColumn id="8" name="spacial"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Car" headerRowCount="1" id="3" name="Car" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -292,21 +292,21 @@
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="School" headerRowCount="1" headerRowDxfId="6" id="4" name="School" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Addres" dataDxfId="2"/>
-    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
-    <tableColumn id="5" name="Time" dataDxfId="0"/>
+    <tableColumn dataDxfId="4" id="1" name="ID"/>
+    <tableColumn dataDxfId="3" id="2" name="Name"/>
+    <tableColumn dataDxfId="2" id="3" name="Addres"/>
+    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="0" id="5" name="Time"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -579,19 +579,19 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.6640625" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.33203125"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
+    <col customWidth="1" max="6" min="6" width="10.6640625"/>
+    <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>9,-2</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2,-1</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-7,-3</t>
+          <t>0,-5</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-8,-8</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-6,-2</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>2,-1</t>
+          <t>4,-10</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>-3,-9</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-5,-10</t>
+          <t>3,-1</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-9,-6</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>9,-7</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>4,-1</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>5,-7</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-7,-6</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>0,-9</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-3,-8</t>
+          <t>1,-10</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,-1</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>1,-2</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1295,7 +1295,7 @@
       <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1317,14 +1317,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.5546875" customWidth="1" min="6" max="6"/>
-    <col width="8.44140625" customWidth="1" min="7" max="7"/>
-    <col width="8.33203125" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="12.5546875"/>
+    <col customWidth="1" max="7" min="7" width="8.44140625"/>
+    <col customWidth="1" max="8" min="8" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1429,12 +1429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="16.88671875" customWidth="1" min="4" max="4"/>
-    <col width="9.6640625" customWidth="1" min="5" max="5"/>
-    <col width="11.77734375" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="16.88671875"/>
+    <col customWidth="1" max="5" min="5" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1558,11 +1558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.109375"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1574,13 +1574,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,29 +79,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -171,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="17" type="wholeTable"/>
-      <tableStyleElement dxfId="16" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -249,23 +249,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="7" id="7" name="special_needs"/>
+    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Accompanier" headerRowCount="1" id="2" name="Accompanier" ref="A1:H2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
@@ -277,12 +277,12 @@
     <tableColumn id="7" name="history"/>
     <tableColumn id="8" name="spacial"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Car" headerRowCount="1" id="3" name="Car" ref="A1:F4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -292,21 +292,21 @@
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="School" headerRowCount="1" headerRowDxfId="6" id="4" name="School" ref="A1:E2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn dataDxfId="4" id="1" name="ID"/>
-    <tableColumn dataDxfId="3" id="2" name="Name"/>
-    <tableColumn dataDxfId="2" id="3" name="Addres"/>
-    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
-    <tableColumn dataDxfId="0" id="5" name="Time"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Addres" dataDxfId="2"/>
+    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
+    <tableColumn id="5" name="Time" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -579,19 +579,19 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.33203125"/>
-    <col customWidth="1" max="2" min="2" width="11.6640625"/>
-    <col customWidth="1" max="3" min="3" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
-    <col customWidth="1" max="6" min="6" width="10.6640625"/>
-    <col customWidth="1" max="7" min="7" width="14.33203125"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.6640625" customWidth="1" min="6" max="6"/>
+    <col width="14.33203125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0,-5</t>
+          <t>-7,-2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>2,-2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-8,-8</t>
+          <t>-7,-3</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-6,-2</t>
+          <t>-10,-7</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>4,-10</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-3,-9</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>3,-1</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>7,-6</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>8,-10</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>9,-7</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>4,-1</t>
+          <t>9,-7</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>-10,-2</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>1,-10</t>
+          <t>7,-6</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-1,-1</t>
+          <t>9,-2</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>2,-3</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1295,7 +1295,7 @@
       <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1317,14 +1317,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="2" min="2" width="11.6640625"/>
-    <col customWidth="1" max="3" min="3" width="11.33203125"/>
-    <col customWidth="1" max="4" min="4" width="9.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
-    <col customWidth="1" max="6" min="6" width="12.5546875"/>
-    <col customWidth="1" max="7" min="7" width="8.44140625"/>
-    <col customWidth="1" max="8" min="8" width="8.33203125"/>
+    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="9.109375" customWidth="1" min="4" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.5546875" customWidth="1" min="6" max="6"/>
+    <col width="8.44140625" customWidth="1" min="7" max="7"/>
+    <col width="8.33203125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1429,12 +1429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="4.44140625"/>
-    <col customWidth="1" max="2" min="2" width="10"/>
-    <col customWidth="1" max="3" min="3" width="11.33203125"/>
-    <col customWidth="1" max="4" min="4" width="16.88671875"/>
-    <col customWidth="1" max="5" min="5" width="9.6640625"/>
-    <col customWidth="1" max="6" min="6" width="11.77734375"/>
+    <col width="4.44140625" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" min="3" max="3"/>
+    <col width="16.88671875" customWidth="1" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" min="5" max="5"/>
+    <col width="11.77734375" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1558,11 +1558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.109375"/>
+    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1574,13 +1574,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="10"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0,-5</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-8,-8</t>
+          <t>-6,-3</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-6,-2</t>
+          <t>0,-1</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>4,-10</t>
+          <t>6,-9</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-3,-9</t>
+          <t>5,-4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>3,-1</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>9,-7</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>4,-1</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-2,-5</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-9,-1</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>1,-10</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-1,-1</t>
+          <t>1,-6</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-7,-2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>-8,-9</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-7,-2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2,-2</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-7,-3</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-10,-7</t>
+          <t>-4,-5</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>6,-2</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>3,-5</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>7,-6</t>
+          <t>1,-9</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>8,-10</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-10,-8</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>9,-7</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>0,-4</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>-1,-2</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-10,-2</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>7,-6</t>
+          <t>8,-3</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>9,-2</t>
+          <t>8,-7</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>2,-3</t>
+          <t>-10,-7</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-7,-2</t>
+          <t>3,-10</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-8,-9</t>
+          <t>1,-6</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>6,-10</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-4,-5</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>6,-2</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>3,-5</t>
+          <t>7,-6</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>1,-9</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-10,-8</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-7,-6</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>0,-4</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-1,-2</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>-2,-8</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>8,-3</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>8,-7</t>
+          <t>-4,-3</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-10,-7</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-7,-2</t>
+          <t>7,-6</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-8,-9</t>
+          <t>-9,-10</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>9,-3</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-4,-5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-7,-4</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>6,-2</t>
+          <t>-3,-1</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>3,-5</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>1,-9</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-10,-8</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>0,-4</t>
+          <t>-5,-4</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,-8</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-1,-2</t>
+          <t>-6,-1</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>-10,-6</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>8,-3</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>8,-7</t>
+          <t>5,-1</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-10,-7</t>
+          <t>6,-4</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>3,-10</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>1,-6</t>
+          <t>5,-1</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>6,-10</t>
+          <t>-6,-2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-5,-5</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>7,-6</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-7,-6</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>0,-9</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-2,-8</t>
+          <t>4,-3</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-4,-3</t>
+          <t>9,-7</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-8,-8</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>5,-1</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-6,-2</t>
+          <t>-10,-9</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-5,-5</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>-4,-1</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-6,-9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-4,-3</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-7,-5</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>0,-9</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-5,-1</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-8,-1</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>4,-3</t>
+          <t>-1,-8</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>9,-7</t>
+          <t>-3,-6</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-8,-8</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>5,-2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-10,-9</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-4,-1</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-1,-3</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-6,-9</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-4,-3</t>
+          <t>-9,-10</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-3,-7</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-7,-5</t>
+          <t>-1,-8</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>2,-10</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-5,-1</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-8,-1</t>
+          <t>-1,-6</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-1,-8</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-3,-6</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,29 +79,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -171,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="17" type="wholeTable"/>
+      <tableStyleElement dxfId="16" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -249,23 +249,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="7" id="7" name="special_needs"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Accompanier" headerRowCount="1" id="2" name="Accompanier" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
@@ -277,12 +277,12 @@
     <tableColumn id="7" name="history"/>
     <tableColumn id="8" name="spacial"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Car" headerRowCount="1" id="3" name="Car" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -292,21 +292,21 @@
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="School" headerRowCount="1" headerRowDxfId="6" id="4" name="School" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Addres" dataDxfId="2"/>
-    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
-    <tableColumn id="5" name="Time" dataDxfId="0"/>
+    <tableColumn dataDxfId="4" id="1" name="ID"/>
+    <tableColumn dataDxfId="3" id="2" name="Name"/>
+    <tableColumn dataDxfId="2" id="3" name="Addres"/>
+    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="0" id="5" name="Time"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -579,19 +579,19 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.6640625" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.33203125"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
+    <col customWidth="1" max="6" min="6" width="10.6640625"/>
+    <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>5,-2</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-9,-9</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,-2</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>3,-9</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-9,-5</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-1,-3</t>
+          <t>-8,-7</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>-10,-7</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-9,-10</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-3,-7</t>
+          <t>7,-1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-1,-8</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>2,-10</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-10,0</t>
+          <t>-7,-7</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>0,-3</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-1,-6</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-3,-7</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-2,-1</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-6,-9</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1295,7 +1295,7 @@
       <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1317,14 +1317,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.5546875" customWidth="1" min="6" max="6"/>
-    <col width="8.44140625" customWidth="1" min="7" max="7"/>
-    <col width="8.33203125" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="12.5546875"/>
+    <col customWidth="1" max="7" min="7" width="8.44140625"/>
+    <col customWidth="1" max="8" min="8" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1429,12 +1429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="16.88671875" customWidth="1" min="4" max="4"/>
-    <col width="9.6640625" customWidth="1" min="5" max="5"/>
-    <col width="11.77734375" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="16.88671875"/>
+    <col customWidth="1" max="5" min="5" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1558,11 +1558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.109375"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1574,13 +1574,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-4,-7</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-9,-9</t>
+          <t>-1,-8</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-9,-9</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>-10,-2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>2,-2</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>3,-9</t>
+          <t>-3,-6</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-9,-5</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-8,-7</t>
+          <t>3,-6</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-10,-7</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-10,0</t>
+          <t>1,-1</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>7,-1</t>
+          <t>5,-7</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-7,-7</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>0,-3</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-3,-7</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-2,-1</t>
+          <t>2,-8</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-6,-9</t>
+          <t>-10,-5</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,29 +79,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -171,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="17" type="wholeTable"/>
+      <tableStyleElement dxfId="16" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -249,23 +249,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Child" displayName="Child" ref="A1:G21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="first_name" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="lest_name" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="address" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="contacts" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="id_school" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="special_needs" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="7" id="7" name="special_needs"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Accompanier" displayName="Accompanier" ref="A1:H2" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Accompanier" headerRowCount="1" id="2" name="Accompanier" ref="A1:H2" totalsRowShown="0">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
@@ -277,12 +277,12 @@
     <tableColumn id="7" name="history"/>
     <tableColumn id="8" name="spacial"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Car" displayName="Car" ref="A1:F4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Car" headerRowCount="1" id="3" name="Car" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
@@ -292,21 +292,21 @@
     <tableColumn id="5" name="capacity"/>
     <tableColumn id="6" name="wheelchair"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="School" displayName="School" ref="A1:E2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="School" headerRowCount="1" headerRowDxfId="6" id="4" name="School" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Addres" dataDxfId="2"/>
-    <tableColumn id="4" name="Contacts" dataDxfId="1"/>
-    <tableColumn id="5" name="Time" dataDxfId="0"/>
+    <tableColumn dataDxfId="4" id="1" name="ID"/>
+    <tableColumn dataDxfId="3" id="2" name="Name"/>
+    <tableColumn dataDxfId="2" id="3" name="Addres"/>
+    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="0" id="5" name="Time"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -579,19 +579,19 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.6640625" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.33203125"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
+    <col customWidth="1" max="6" min="6" width="10.6640625"/>
+    <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>5,-2</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>8,-6</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-7,-10</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-7,-7</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-1,-3</t>
+          <t>-7,-9</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-9,-10</t>
+          <t>3,-3</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-3,-7</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>-1,-8</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>2,-10</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-10,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>-1,-6</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,-1</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1295,7 +1295,7 @@
       <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1317,14 +1317,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.5546875" customWidth="1" min="6" max="6"/>
-    <col width="8.44140625" customWidth="1" min="7" max="7"/>
-    <col width="8.33203125" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="11.6640625"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="12.5546875"/>
+    <col customWidth="1" max="7" min="7" width="8.44140625"/>
+    <col customWidth="1" max="8" min="8" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1429,12 +1429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="16.88671875" customWidth="1" min="4" max="4"/>
-    <col width="9.6640625" customWidth="1" min="5" max="5"/>
-    <col width="11.77734375" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="11.33203125"/>
+    <col customWidth="1" max="4" min="4" width="16.88671875"/>
+    <col customWidth="1" max="5" min="5" width="9.6640625"/>
+    <col customWidth="1" max="6" min="6" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1558,11 +1558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.109375"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1574,13 +1574,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>8,-6</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-7,-10</t>
+          <t>-8,-8</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>6,-2</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-7,-7</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>-7,-7</t>
+          <t>0,-10</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-4,-8</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-7,-9</t>
+          <t>-5,-9</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>3,-3</t>
+          <t>-1,-1</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-2,-8</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>7,-8</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>8,-5</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>4,-1</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-1,-5</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-7,-3</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-8,-8</t>
+          <t>-8,-2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>6,-2</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>-7,-7</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>0,-10</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-4,-8</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>-5,-9</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-7,-9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-1,-1</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>-2,-8</t>
+          <t>3,-1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>4,-8</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>7,-8</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-5,-5</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>8,-5</t>
+          <t>-7,-1</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-3,-4</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>-1,-5</t>
+          <t>5,-7</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-7,-5</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-7,-3</t>
+          <t>1,-7</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>-8,-2</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-7,-8</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>0,-4</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-10,-2</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>-7,-9</t>
+          <t>9,-4</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-1,-8</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>3,-1</t>
+          <t>-5,-9</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>4,-8</t>
+          <t>-9,-4</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>-5,-5</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>-7,-1</t>
+          <t>-8,-2</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>-3,-4</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>5,-7</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -97,6 +97,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -249,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G21" totalsRowShown="0">
-  <autoFilter ref="A1:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataCellStyle="Normal" dataDxfId="14" displayName="Child" headerRowCellStyle="Normal" headerRowCount="1" headerRowDxfId="15" id="1" name="Child" ref="A1:G22" totalsRowShown="0">
+  <autoFilter ref="A1:G22"/>
   <tableColumns count="7">
     <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
     <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
@@ -579,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -595,697 +598,730 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>lest_name</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>contacts</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>id_school</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>special_needs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>203957296</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Omri</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Ben Shabat</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>-7,-5</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="6" t="n">
         <v>206532695</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Matan</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Vakrat</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1,-7</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>4,-10</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="6" t="n">
         <v>302962915</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Asher </t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Odeh</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>-7,6</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="6" t="n">
         <v>308035542</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Anastasia </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Kubi</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>311177802</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christina </t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Uksusman</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>305251175</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Or </t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Leder</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>308051846</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eyal </t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Sofer</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>-3,-3</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>312049950</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Molham </t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Peretz</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>308073899</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anan </t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Kirshenbaum</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>318869187</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soaad </t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Leibovich</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>205898513</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asaf </t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Braymok</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>-8,-4</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>318428158</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tal </t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Asulin</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>316028364</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sami </t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>318294931</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shalev </t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Afanasenko</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>2,-7</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>305487936</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avihai </t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Kipnis</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>313227928</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aviv </t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Levi</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>-7,-8</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>205807308</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sariel </t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Basis</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>7,-4</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>311177802</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christina </t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Uksusman</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>0,-4</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>305251175</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Or </t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Leder</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>315891549</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raz </t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Halaby</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>308051846</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eyal </t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Sofer</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>-10,-2</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>312049950</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Molham </t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Peretz</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>315060103</v>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Mshelh</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>0,-3</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>313925141</v>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elad  </t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Amer</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>308073899</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anan </t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Kirshenbaum</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>9,-4</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>318869187</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soaad </t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Leibovich</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>-1,-8</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>205898513</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asaf </t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Braymok</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>-5,-9</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>318428158</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tal </t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Asulin</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>316028364</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sami </t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Castro</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>326598423</v>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Cohen</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>-1,-6</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>318294931</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shalev </t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Afanasenko</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>-7,6</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>305487936</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avihai </t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Kipnis</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>-9,-4</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>313227928</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aviv </t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Levi</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>205807308</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sariel </t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Basis</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>315891549</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raz </t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Halaby</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>-8,-2</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>315060103</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Mshelh</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>6,1</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>313925141</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elad  </t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Amer</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>none</t>
         </is>
@@ -1574,7 +1610,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1584,52 +1620,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Addres</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Contacts</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Ironiah</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>null</t>
         </is>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>8,-1</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>4,-10</t>
+          <t>7,-7</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>-5,-6</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-10,-1</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>-3,-3</t>
+          <t>3,-3</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>-8,-4</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>7,-7</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-3,-10</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>2,-7</t>
+          <t>-3,-8</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-5,-1</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>-7,-8</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>7,-4</t>
+          <t>7,-1</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-10,-4</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>0,-3</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-1,-7</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>-1,-6</t>
+          <t>-4,-2</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-9,-1</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>4,-10</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-5,-2</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>-3,-3</t>
+          <t>-7,-9</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>-4,-1</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>4,-3</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>-8,-4</t>
+          <t>-9,-7</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>2,-7</t>
+          <t>-7,-5</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>-7,-8</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>7,-4</t>
+          <t>-10,-1</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>7,-2</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>0,-3</t>
+          <t>2,-6</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>-1,-6</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>-9,-1</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>0,-5</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>0,-2</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>-9,6</t>
+          <t>9,-1</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>-5,-2</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>-7,-9</t>
+          <t>-10,-9</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>-4,-1</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>4,-3</t>
+          <t>-9,-3</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>-9,-7</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>-7,-5</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>-10,-1</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>7,-2</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>2,-6</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>2,-3</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -90,13 +90,13 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -582,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>0,-5</t>
+          <t>-9,-6</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>0,-2</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>9,-1</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>2,-6</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>-10,-9</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>5,-1</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>4,-4</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
@@ -973,14 +973,14 @@
           <t xml:space="preserve">Asaf </t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Braymok</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>3,-4</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -1006,14 +1006,14 @@
           <t xml:space="preserve">Tal </t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Asulin</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -1039,14 +1039,14 @@
           <t xml:space="preserve">Sami </t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -1072,14 +1072,14 @@
           <t xml:space="preserve">Shalev </t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Afanasenko</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-7,-4</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
@@ -1105,14 +1105,14 @@
           <t xml:space="preserve">Avihai </t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>Kipnis</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
@@ -1138,14 +1138,14 @@
           <t xml:space="preserve">Aviv </t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>Levi</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,-10</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
@@ -1171,14 +1171,14 @@
           <t xml:space="preserve">Sariel </t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Basis</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-2,-8</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1204,14 +1204,14 @@
           <t xml:space="preserve">Raz </t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>Halaby</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
@@ -1237,14 +1237,14 @@
           <t xml:space="preserve">Dan </t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>Mshelh</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
@@ -1270,14 +1270,14 @@
           <t xml:space="preserve">Elad  </t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>Amer</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>2,-3</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -82,7 +82,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -94,9 +94,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -583,7 +580,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -598,730 +595,730 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>lest_name</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>contacts</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>id_school</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>special_needs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>203957296</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Omri</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Ben Shabat</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>206532695</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Matan</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Vakrat</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>302962915</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Asher </t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Odeh</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>-9,-6</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n">
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>-3,-7</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>308035542</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anastasia </t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Kubi</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>311177802</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Christina </t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Uksusman</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>-7,8</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>-2,-8</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>305251175</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Or </t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Leder</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>308051846</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eyal </t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Sofer</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>312049950</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Molham </t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Peretz</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>2,-6</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n">
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>308073899</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anan </t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Kirshenbaum</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>-6,-7</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>318869187</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soaad </t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Leibovich</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>-8,-6</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>205898513</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asaf </t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Braymok</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>318428158</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tal </t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Asulin</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>5,-3</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>316028364</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sami </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>-9,-4</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>318294931</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shalev </t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Afanasenko</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>305487936</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avihai </t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Kipnis</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>308051846</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eyal </t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Sofer</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>-5,3</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="n">
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>313227928</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aviv </t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Levi</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>205807308</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sariel </t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Basis</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>-10,-8</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>312049950</v>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Molham </t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Peretz</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>315891549</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raz </t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Halaby</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>-4,-5</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>315060103</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Mshelh</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>313925141</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elad  </t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Amer</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>308073899</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anan </t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Kirshenbaum</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>5,-1</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>318869187</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soaad </t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Leibovich</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>4,-4</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>205898513</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asaf </t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Braymok</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>3,-4</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>318428158</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tal </t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Asulin</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>316028364</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sami </t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Castro</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="n">
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>326598423</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Cohen</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>3,-10</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>318294931</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shalev </t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Afanasenko</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>-7,-4</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>305487936</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avihai </t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Kipnis</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>313227928</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aviv </t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Levi</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>1,-10</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>205807308</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sariel </t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Basis</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>-2,-8</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>315891549</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raz </t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Halaby</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>-10,5</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
-        <v>315060103</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Mshelh</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>-6,1</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>313925141</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elad  </t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>Amer</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>-6,4</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n">
-        <v>326598423</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Cohen</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
@@ -1620,52 +1617,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Addres</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Contacts</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Ironiah</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>null</t>
         </is>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-2,-3</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>-1,-6</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-3,-7</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-2,-8</t>
+          <t>-10,4</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-10,-6</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>2,-6</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-6,-7</t>
+          <t>-1,-9</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-8,-6</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>5,-3</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-9,-4</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-6,-9</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-8,-7</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-10,-8</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-4,-5</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>3,-10</t>
+          <t>5,-1</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-2,-3</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>-1,-6</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>5,-6</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-8,-2</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-10,-6</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-2,-6</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-1,-9</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-4,-10</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>4,-5</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>-3,-8</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-6,-9</t>
+          <t>3,-10</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-8,-7</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>2,-6</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>5,-1</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-9,6</t>
+          <t>-2,-7</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>5,-6</t>
+          <t>1,-6</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-8,-2</t>
+          <t>9,-8</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>9,6</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-2,-6</t>
+          <t>-4,-7</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-4,-10</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>4,-5</t>
+          <t>-9,-8</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-9,-3</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-3,-8</t>
+          <t>-10,-8</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>3,-10</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-9,-1</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>0,-1</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-2,-9</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>2,-6</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>-8,-6</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>2,-3</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-2,-7</t>
+          <t>-6,-3</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>1,-6</t>
+          <t>8,-8</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>9,-8</t>
+          <t>4,-1</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-2,-8</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-4,-2</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-4,-7</t>
+          <t>0,-4</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-2,-6</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-8,-8</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-9,-8</t>
+          <t>4,-5</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>-3,-2</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-10,-8</t>
+          <t>-7,-1</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-2,-5</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>2,-7</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-9,-1</t>
+          <t>-8,-6</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>0,-1</t>
+          <t>2,-5</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-2,-9</t>
+          <t>-2,-3</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>8,-8</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>-8,-6</t>
+          <t>-5,-3</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="School" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +42,13 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF404040"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -82,7 +89,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -99,6 +106,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -254,7 +262,7 @@
   <tableColumns count="7">
     <tableColumn dataCellStyle="Normal" dataDxfId="13" id="1" name="ID"/>
     <tableColumn dataCellStyle="Normal" dataDxfId="12" id="2" name="first_name"/>
-    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="lest_name"/>
+    <tableColumn dataCellStyle="Normal" dataDxfId="11" id="3" name="last_name"/>
     <tableColumn dataCellStyle="Normal" dataDxfId="10" id="4" name="address"/>
     <tableColumn dataCellStyle="Normal" dataDxfId="9" id="5" name="contacts"/>
     <tableColumn dataCellStyle="Normal" dataDxfId="8" id="6" name="id_school"/>
@@ -303,8 +311,8 @@
     <tableColumn dataDxfId="4" id="1" name="ID"/>
     <tableColumn dataDxfId="3" id="2" name="Name"/>
     <tableColumn dataDxfId="2" id="3" name="Addres"/>
-    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
-    <tableColumn dataDxfId="0" id="5" name="Time"/>
+    <tableColumn dataDxfId="0" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="1" id="5" name="Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
@@ -579,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -589,7 +597,7 @@
     <col customWidth="1" max="2" min="2" width="11.6640625"/>
     <col customWidth="1" max="3" min="3" width="11.33203125"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="22.33203125"/>
     <col customWidth="1" max="6" min="6" width="10.6640625"/>
     <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
@@ -607,7 +615,7 @@
       </c>
       <c r="C1" s="5" t="inlineStr">
         <is>
-          <t>lest_name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="D1" s="5" t="inlineStr">
@@ -632,27 +640,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>203957296</v>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>219770551</t>
+        </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Omri</t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Ben Shabat</t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>2,-3</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-5.57,-7.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
@@ -665,27 +675,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>206532695</v>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>201941833</t>
+        </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>Matan</t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Vakrat</t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>9,2</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>9.13,-6.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
@@ -698,27 +710,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>302962915</v>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>201335273</t>
+        </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asher </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>Odeh</t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-6,-3</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-3.64,-8.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
@@ -731,27 +745,29 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>308035542</v>
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>308595499</t>
+        </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anastasia </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>Kubi</t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>8,-8</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>3.22,-4.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
@@ -764,27 +780,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>311177802</v>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>217792896</t>
+        </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christina </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Uksusman</t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>4,-1</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>5.29,-1.7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
@@ -797,27 +815,29 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>305251175</v>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>215554804</t>
+        </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Or </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Leder</t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-2,-8</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-2.21,7.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
@@ -830,27 +850,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>308051846</v>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>200274016</t>
+        </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eyal </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>Sofer</t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-4,-2</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-0.9,1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
@@ -863,27 +885,29 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>312049950</v>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>303847768</t>
+        </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Molham </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Peretz</t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>0,-4</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-1.69,7.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
@@ -896,27 +920,29 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>308073899</v>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>217195772</t>
+        </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anan </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Kirshenbaum</t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-2,-6</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>5.85,-3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
@@ -929,27 +955,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>318869187</v>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>219866882</t>
+        </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soaad </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Leibovich</t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-8,-8</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>4.3,4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
@@ -962,27 +990,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>205898513</v>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>309544767</t>
+        </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asaf </t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Braymok</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>4,-5</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-0.66,-6.1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
@@ -995,27 +1025,29 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>318428158</v>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>313132348</t>
+        </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tal </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Asulin</t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>-3,-2</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>5.19,8.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
@@ -1028,27 +1060,29 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>316028364</v>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>207990129</t>
+        </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sami </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-7,-1</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-0.44,-4.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
@@ -1061,27 +1095,29 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>318294931</v>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>302303343</t>
+        </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shalev </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Afanasenko</t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-2,-5</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-0.69,-2.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
@@ -1094,27 +1130,29 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>305487936</v>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>209121558</t>
+        </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avihai </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Kipnis</t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>2,-7</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-9.64,-6.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="F16" s="5" t="n">
@@ -1127,27 +1165,29 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>313227928</v>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>202891229</t>
+        </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aviv </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Levi</t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-8,-6</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>9.74,-6.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="F17" s="5" t="n">
@@ -1160,27 +1200,29 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>205807308</v>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>305735630</t>
+        </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sariel </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Basis</t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>2,-5</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>-0.28,-7.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="F18" s="5" t="n">
@@ -1193,27 +1235,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>315891549</v>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>313646888</t>
+        </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raz </t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Halaby</t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-2,-3</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>0.82,2.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="F19" s="5" t="n">
@@ -1226,27 +1270,29 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>315060103</v>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>214875339</t>
+        </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Mshelh</t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>8,-8</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>9.03,-3.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="F20" s="5" t="n">
@@ -1259,27 +1305,29 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>313925141</v>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>318379152</t>
+        </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elad  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Amer</t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>4.52,0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="F21" s="5" t="n">
@@ -1292,8 +1340,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>326598423</v>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>313558057</t>
+        </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
@@ -1307,12 +1357,12 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>-5,-3</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>8.56,6.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="F22" s="5" t="n">
@@ -1605,15 +1655,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="24.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1659,17 +1709,21 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="9">
+      <c r="H9" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-5.57,-7.62</t>
+          <t>-3.79,-6.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>9.13,-6.03</t>
+          <t>-3.38,-8.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-3.64,-8.82</t>
+          <t>9.23,-4.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>3.22,-4.99</t>
+          <t>5.22,6.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>5.29,-1.7</t>
+          <t>7.2,-4.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-2.21,7.91</t>
+          <t>4.1,-9.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-0.9,1.53</t>
+          <t>-0.56,-5.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-1.69,7.1</t>
+          <t>8.53,4.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>5.85,-3.16</t>
+          <t>4.75,1.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>4.3,4.06</t>
+          <t>7.35,0.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-0.66,-6.1</t>
+          <t>2.94,5.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>5.19,8.97</t>
+          <t>-6.85,-6.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-0.44,-4.45</t>
+          <t>-1.97,-1.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-0.69,-2.65</t>
+          <t>4.06,1.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-9.64,-6.26</t>
+          <t>-3.53,-7.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>9.74,-6.64</t>
+          <t>-4.27,2.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-0.28,-7.67</t>
+          <t>5.91,9.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>0.82,2.52</t>
+          <t>-0.1,6.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>9.03,-3.47</t>
+          <t>3.29,-9.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>4.52,0.02</t>
+          <t>0.59,2.71</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>8.56,6.88</t>
+          <t>-2.77,1.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="School" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -311,8 +311,8 @@
     <tableColumn dataDxfId="4" id="1" name="ID"/>
     <tableColumn dataDxfId="3" id="2" name="Name"/>
     <tableColumn dataDxfId="2" id="3" name="Addres"/>
-    <tableColumn dataDxfId="0" id="4" name="Contacts"/>
-    <tableColumn dataDxfId="1" id="5" name="Time"/>
+    <tableColumn dataDxfId="1" id="4" name="Contacts"/>
+    <tableColumn dataDxfId="0" id="5" name="Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
@@ -587,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -597,7 +597,7 @@
     <col customWidth="1" max="2" min="2" width="11.6640625"/>
     <col customWidth="1" max="3" min="3" width="11.33203125"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="22.33203125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="30.6640625"/>
     <col customWidth="1" max="6" min="6" width="10.6640625"/>
     <col customWidth="1" max="7" min="7" width="14.33203125"/>
   </cols>
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-5.57,-7.62</t>
+          <t>-4.17,-3.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>9.13,-6.03</t>
+          <t>1.95,-8.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-3.64,-8.82</t>
+          <t>-7.38,-6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>3.22,-4.99</t>
+          <t>-2.83,7.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>5.29,-1.7</t>
+          <t>2.15,-5.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-2.21,7.91</t>
+          <t>7.41,-6.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-0.9,1.53</t>
+          <t>-6.44,3.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-1.69,7.1</t>
+          <t>-2.87,-2.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>5.85,-3.16</t>
+          <t>-2.69,6.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>4.3,4.06</t>
+          <t>-9.1,7.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-0.66,-6.1</t>
+          <t>1.4,-5.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>5.19,8.97</t>
+          <t>9.68,-3.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-0.44,-4.45</t>
+          <t>3.22,4.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-0.69,-2.65</t>
+          <t>-3.16,-7.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-9.64,-6.26</t>
+          <t>-0.99,-5.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>9.74,-6.64</t>
+          <t>-9.16,-3.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-0.28,-7.67</t>
+          <t>4.71,-5.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>0.82,2.52</t>
+          <t>-3.08,-1.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>9.03,-3.47</t>
+          <t>6.6,-1.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>4.52,0.02</t>
+          <t>-1.93,9.03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>8.56,6.88</t>
+          <t>3.24,-0.78</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1657,7 +1657,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+    <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-4.17,-3.8</t>
+          <t>-4.18,-8.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>1.95,-8.2</t>
+          <t>4.52,-9.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-7.38,-6.34</t>
+          <t>-1.98,-2.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-2.83,7.67</t>
+          <t>-1.65,-8.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>2.15,-5.14</t>
+          <t>-0.28,2.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>7.41,-6.16</t>
+          <t>-6.55,4.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-6.44,3.18</t>
+          <t>-9.79,-8.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-2.87,-2.03</t>
+          <t>-7.11,9.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-2.69,6.26</t>
+          <t>5.4,-6.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-9.1,7.31</t>
+          <t>-8.77,7.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>1.4,-5.2</t>
+          <t>8.81,2.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>9.68,-3.45</t>
+          <t>9.63,4.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>3.22,4.01</t>
+          <t>1.45,4.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-3.16,-7.95</t>
+          <t>0.33,2.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-0.99,-5.37</t>
+          <t>3.37,7.62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-9.16,-3.53</t>
+          <t>9.71,4.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>4.71,-5.7</t>
+          <t>6.19,7.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-3.08,-1.04</t>
+          <t>-3.64,7.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>6.6,-1.08</t>
+          <t>9.32,9.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-1.93,9.03</t>
+          <t>6.54,0.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>3.24,-0.78</t>
+          <t>9.6,-1.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-4.18,-8.88</t>
+          <t>-5.2,-4.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>4.52,-9.26</t>
+          <t>-0.07,9.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-1.98,-2.1</t>
+          <t>7.33,-4.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-1.65,-8.14</t>
+          <t>-0.99,0.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-0.28,2.19</t>
+          <t>6.22,-0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-6.55,4.12</t>
+          <t>0.03,9.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-9.79,-8.09</t>
+          <t>3.13,1.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-7.11,9.53</t>
+          <t>-4.29,-7.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>5.4,-6.02</t>
+          <t>-1.97,-7.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-8.77,7.51</t>
+          <t>8.33,8.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>8.81,2.38</t>
+          <t>-1.87,4.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>9.63,4.02</t>
+          <t>-8.86,-5.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>1.45,4.78</t>
+          <t>8.79,0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>0.33,2.02</t>
+          <t>2.1,3.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>3.37,7.62</t>
+          <t>5.04,3.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>9.71,4.53</t>
+          <t>9.82,7.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>6.19,7.48</t>
+          <t>-4.8,-6.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-3.64,7.49</t>
+          <t>6.07,9.47</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>9.32,9.44</t>
+          <t>9.89,-0.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>6.54,0.52</t>
+          <t>2.72,-7.47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>9.6,-1.85</t>
+          <t>0.86,9.91</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-4.18,-8.88</t>
+          <t>-3.01,3.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>4.52,-9.26</t>
+          <t>8.46,-1.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-1.98,-2.1</t>
+          <t>-5.57,-9.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-1.65,-8.14</t>
+          <t>-1.78,-3.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-0.28,2.19</t>
+          <t>7.54,-8.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-6.55,4.12</t>
+          <t>-0.56,-6.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-9.79,-8.09</t>
+          <t>-3.09,-3.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-7.11,9.53</t>
+          <t>-4.33,0.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>5.4,-6.02</t>
+          <t>-2.63,7.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-8.77,7.51</t>
+          <t>-9.76,7.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>8.81,2.38</t>
+          <t>1.17,-4.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>9.63,4.02</t>
+          <t>-6.35,3.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>1.45,4.78</t>
+          <t>9.96,8.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>0.33,2.02</t>
+          <t>-4.89,2.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>3.37,7.62</t>
+          <t>8.07,2.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>9.71,4.53</t>
+          <t>-5.03,3.47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>6.19,7.48</t>
+          <t>9.82,6.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-3.64,7.49</t>
+          <t>5.79,5.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>9.32,9.44</t>
+          <t>1.22,-9.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>6.54,0.52</t>
+          <t>-7.76,-1.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>9.6,-1.85</t>
+          <t>-8.77,-7.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-3.01,3.2</t>
+          <t>-6.65,7.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>8.46,-1.79</t>
+          <t>7.75,-1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-5.57,-9.66</t>
+          <t>-8.38,6.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-1.78,-3.65</t>
+          <t>-5.15,-3.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>7.54,-8.77</t>
+          <t>-7.14,-1.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-0.56,-6.13</t>
+          <t>-0.63,-1.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>-3.09,-3.85</t>
+          <t>6.04,5.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-4.33,0.85</t>
+          <t>5.19,-5.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>-2.63,7.34</t>
+          <t>3.52,-5.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-9.76,7.61</t>
+          <t>-6.03,3.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>1.17,-4.35</t>
+          <t>-6.3,-0.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>-6.35,3.21</t>
+          <t>-9.16,-4.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>9.96,8.49</t>
+          <t>-0.18,-7.37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-4.89,2.74</t>
+          <t>4.45,1.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>8.07,2.26</t>
+          <t>-7.85,2.56</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-5.03,3.47</t>
+          <t>-9.9,3.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>9.82,6.59</t>
+          <t>-4.83,-1.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>5.79,5.55</t>
+          <t>-6.72,-1.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>1.22,-9.32</t>
+          <t>0.42,9.67</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-7.76,-1.4</t>
+          <t>-5.19,6.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>-8.77,-7.22</t>
+          <t>-2.33,-7.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-6.65,7.8</t>
+          <t>-0.75,-7.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>7.75,-1.13</t>
+          <t>-7.45,3.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-8.38,6.18</t>
+          <t>-1.07,-9.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-5.15,-3.61</t>
+          <t>9.12,0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>-7.14,-1.26</t>
+          <t>8.52,-5.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-0.63,-1.53</t>
+          <t>9.35,-5.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>6.04,5.4</t>
+          <t>8.06,7.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>5.19,-5.63</t>
+          <t>-7.84,3.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>3.52,-5.3</t>
+          <t>1.1,-7.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-6.03,3.13</t>
+          <t>-6.44,9.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-6.3,-0.62</t>
+          <t>-3.45,-0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>-9.16,-4.56</t>
+          <t>1.09,-0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-0.18,-7.37</t>
+          <t>-2.25,-1.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>4.45,1.94</t>
+          <t>-8.3,6.81</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>-7.85,2.56</t>
+          <t>5.68,-4.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-9.9,3.16</t>
+          <t>-3.23,2.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-4.83,-1.02</t>
+          <t>9.04,-9.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-6.72,-1.52</t>
+          <t>-5.94,3.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>0.42,9.67</t>
+          <t>8.28,-3.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-5.19,6.9</t>
+          <t>-2.97,1.58</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>-2.33,-7.05</t>
+          <t>6.33,5.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>-0.75,-7.75</t>
+          <t>-0.39,3.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>-7.45,3.53</t>
+          <t>9.49,-6.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>-1.07,-9.07</t>
+          <t>3.51,5.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>9.12,0.07</t>
+          <t>3.79,9.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>8.52,-5.98</t>
+          <t>-0.04,2.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>9.35,-5.18</t>
+          <t>-0.7,-4.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>8.06,7.39</t>
+          <t>-9.07,8.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>-7.84,3.24</t>
+          <t>8.17,5.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>1.1,-7.16</t>
+          <t>5.69,-7.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>-6.44,9.6</t>
+          <t>6.52,3.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-3.45,-0.28</t>
+          <t>-5.32,-4.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>1.09,-0.75</t>
+          <t>1.12,-0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-2.25,-1.67</t>
+          <t>-9.03,2.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>-8.3,6.81</t>
+          <t>-9.58,0.96</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>5.68,-4.32</t>
+          <t>3.02,0.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-3.23,2.78</t>
+          <t>-1.16,-3.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>9.04,-9.54</t>
+          <t>-2.26,-5.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>-5.94,3.44</t>
+          <t>6.47,-7.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>8.28,-3.72</t>
+          <t>8.29,-7.69</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>-2.97,1.58</t>
+          <t>5.65,-4.22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>6.33,5.28</t>
+          <t>-7.75,1.72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omri braymok\Desktop\לימודים\שנה 6-סמסטר א\פרויקט שלב ב'\TransportationClustering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omri braymok\Desktop\לימודים\שנה 6-סמסטר א\פרויקט שלב ב'\DailyTransportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6F18E-DA8D-4078-BFB0-CD79CEFCFAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C882E1B8-A7D9-4B3A-850D-E7766C1A4994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Child" sheetId="1" r:id="rId1"/>
-    <sheet name="Accompanier" sheetId="2" r:id="rId2"/>
-    <sheet name="Car" sheetId="3" r:id="rId3"/>
-    <sheet name="time_travel" sheetId="4" r:id="rId4"/>
-    <sheet name="School" sheetId="5" r:id="rId5"/>
+    <sheet name="Car" sheetId="3" r:id="rId2"/>
+    <sheet name="School" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -363,27 +361,6 @@
   </si>
   <si>
     <t>Bernardine(mother): 0576270618</t>
-  </si>
-  <si>
-    <t>lest_name</t>
-  </si>
-  <si>
-    <t>preferences</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>spacial</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Levi</t>
-  </si>
-  <si>
-    <t>Haifa, 5</t>
   </si>
   <si>
     <t>car_type</t>
@@ -625,23 +602,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Accompanier" displayName="Accompanier" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="first_name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="lest_name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="address"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="contacts"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="preferences"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="history"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="spacial"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Car" displayName="Car" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
@@ -656,7 +616,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="School" displayName="School" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
@@ -935,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -1469,90 +1429,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>206598326</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2">
-        <v>526953265</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1571,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1591,7 +1471,7 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -1611,7 +1491,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1631,7 +1511,7 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1651,7 +1531,7 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -1675,25 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1711,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1728,16 +1590,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>7.8,0.51</t>
+          <t>-8.8,-1.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>7.0,3.02</t>
+          <t>2.63,-0.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>4.19,-8.26</t>
+          <t>6.83,8.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>-2.03,7.84</t>
+          <t>3.53,1.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>9.54,-5.67</t>
+          <t>-4.91,8.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>-5.31,3.0</t>
+          <t>4.35,1.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>1.76,6.91</t>
+          <t>-7.59,-1.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>7.57,3.95</t>
+          <t>6.02,-4.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>0.4,4.96</t>
+          <t>4.06,-2.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>7.25,7.75</t>
+          <t>-5.36,-1.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>-4.45,5.0</t>
+          <t>2.58,-5.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>4.55,9.45</t>
+          <t>3.91,7.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>-6.18,0.92</t>
+          <t>2.57,-6.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>9.23,-5.43</t>
+          <t>-3.66,-1.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>8.51,2.48</t>
+          <t>-8.25,-7.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>-4.39,-9.47</t>
+          <t>3.58,-8.58</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>-9.7,3.02</t>
+          <t>2.68,-8.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>3.31,1.01</t>
+          <t>6.21,6.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>5.62,-3.07</t>
+          <t>8.45,-6.05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>0.64,9.93</t>
+          <t>-6.74,-4.84</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>3.6,7.13</t>
+          <t>-0.94,2.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
